--- a/Utilities/Preguntas.xlsx
+++ b/Utilities/Preguntas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ibm-my.sharepoint.com/personal/jaime_rodriguez_lara_ibm_com/Documents/Escritorio/TFG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ibm-my.sharepoint.com/personal/jaime_rodriguez_lara_ibm_com/Documents/Escritorio/TFG/Utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_F25DC773A252ABDACC1048B8891D75505ADE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1394BCA3-3782-48C4-A2B8-ED3A9F6CA738}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_F25DC773A252ABDACC1048B8891D75505ADE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{750A9994-8234-49C8-9CF3-AB2D0A668909}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="720" yWindow="720" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Como funciona en el excel las fechas</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Los datos en blanco son que no se usa ese parametro?</t>
+  </si>
+  <si>
+    <t>Las descargas son importantes?</t>
   </si>
 </sst>
 </file>
@@ -373,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:B6"/>
+  <dimension ref="A3:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -408,6 +411,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
